--- a/biology/Zoologie/Coenocorypha_miratropica/Coenocorypha_miratropica.xlsx
+++ b/biology/Zoologie/Coenocorypha_miratropica/Coenocorypha_miratropica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coenocorypha miratropica est une espèce éteinte de bécassines australes[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coenocorypha miratropica est une espèce éteinte de bécassines australes. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Coenocorypha miratropica a été décrite en 2003 par le zoologiste néozélandais Trevor Henry Worthy (d) (1957-)[2],[3] à partir d'un humérus gauche complet découvert dans une grotte sur l'île de Viti Levu (Fidji)[3]. L'âge géologique reste inconnu mais pourrait appartenir à l'Holocène[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Coenocorypha miratropica a été décrite en 2003 par le zoologiste néozélandais Trevor Henry Worthy (d) (1957-), à partir d'un humérus gauche complet découvert dans une grotte sur l'île de Viti Levu (Fidji). L'âge géologique reste inconnu mais pourrait appartenir à l'Holocène.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est plus grande que tous ses congénères de l'archipel de la Nouvelle-Zélande, y compris ses îles subantarctiques. Des sillons ligamentaires mieux développés et des processus d'attachement sur l'humérus suggèrent que cette espèce était peut-être le plus puissant aviateur du genre[réf. nécessaire].
 </t>
@@ -573,7 +589,9 @@
           <t>Extinction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce s'est éteinte en c. 1000 ans avec l'arrivée humaine en Nouvelle-Calédonie, il serait probablement disparu à la suite de la déprédation par les rats qui sont arrivés avec les humains[réf. nécessaire].
 </t>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, miratropica, combine les adjectifs latins mirabilis, « admirable, merveilleux, étonnant », et tropica, « tropique », et fait référence à la surprise de découvrir une espèce de ce genre à haute altitude sur une île tropicale[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, miratropica, combine les adjectifs latins mirabilis, « admirable, merveilleux, étonnant », et tropica, « tropique », et fait référence à la surprise de découvrir une espèce de ce genre à haute altitude sur une île tropicale.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Trevor H. Worthy, « A new extinct species of snipe Coenocorypha from Vitilevu, Fiji », Bulletin of the British Ornithologists' Club, Londres, BOC, vol. 123, no 2,‎ janvier 2003, p. 90-103 (ISSN 0007-1595 et 2513-9894, OCLC 1537351, lire en ligne)</t>
         </is>
